--- a/data/bank_acc/bank_acc_1.xlsx
+++ b/data/bank_acc/bank_acc_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ACD86D-45B2-47B1-A422-21CFB8E1D91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D7172-B3F9-46D6-B7D8-45D2446F717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3182A1A4-E646-4769-A2DA-646EFA07FD16}">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +733,7 @@
         <v>-650</v>
       </c>
       <c r="E2" s="3">
-        <f>E1+D1</f>
+        <f>D1+E1</f>
         <v>5200</v>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>-100</v>
       </c>
       <c r="E3" s="3">
-        <f>E2+D2</f>
+        <f t="shared" ref="E3:E66" si="0">D2+E2</f>
         <v>4550</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
         <v>-50</v>
       </c>
       <c r="E4" s="3">
-        <f>E3+D3</f>
+        <f t="shared" si="0"/>
         <v>4450</v>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>-110</v>
       </c>
       <c r="E5" s="3">
-        <f>E4+D4</f>
+        <f t="shared" si="0"/>
         <v>4400</v>
       </c>
     </row>
@@ -805,7 +805,7 @@
         <v>-150</v>
       </c>
       <c r="E6" s="3">
-        <f>E5+D5</f>
+        <f t="shared" si="0"/>
         <v>4290</v>
       </c>
     </row>
@@ -823,7 +823,7 @@
         <v>-500</v>
       </c>
       <c r="E7" s="3">
-        <f>E6+D6</f>
+        <f t="shared" si="0"/>
         <v>4140</v>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>-1200</v>
       </c>
       <c r="E8" s="3">
-        <f>E7+D7</f>
+        <f t="shared" si="0"/>
         <v>3640</v>
       </c>
     </row>
@@ -859,7 +859,7 @@
         <v>-80</v>
       </c>
       <c r="E9" s="3">
-        <f>E8+D8</f>
+        <f t="shared" si="0"/>
         <v>2440</v>
       </c>
     </row>
@@ -877,7 +877,7 @@
         <v>-40</v>
       </c>
       <c r="E10" s="3">
-        <f>E9+D9</f>
+        <f t="shared" si="0"/>
         <v>2360</v>
       </c>
     </row>
@@ -895,7 +895,7 @@
         <v>-45</v>
       </c>
       <c r="E11" s="3">
-        <f>E10+D10</f>
+        <f t="shared" si="0"/>
         <v>2320</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
         <v>-150</v>
       </c>
       <c r="E12" s="3">
-        <f>E11+D11</f>
+        <f t="shared" si="0"/>
         <v>2275</v>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>-55</v>
       </c>
       <c r="E13" s="3">
-        <f>E12+D12</f>
+        <f t="shared" si="0"/>
         <v>2125</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
         <v>-30</v>
       </c>
       <c r="E14" s="3">
-        <f>E13+D13</f>
+        <f t="shared" si="0"/>
         <v>2070</v>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>-75</v>
       </c>
       <c r="E15" s="3">
-        <f>E14+D14</f>
+        <f t="shared" si="0"/>
         <v>2040</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
         <v>-60</v>
       </c>
       <c r="E16" s="3">
-        <f>E15+D15</f>
+        <f t="shared" si="0"/>
         <v>1965</v>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
         <v>-35</v>
       </c>
       <c r="E17" s="3">
-        <f>E16+D16</f>
+        <f t="shared" si="0"/>
         <v>1905</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         <v>-90</v>
       </c>
       <c r="E18" s="3">
-        <f>E17+D17</f>
+        <f t="shared" si="0"/>
         <v>1870</v>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
         <v>-25</v>
       </c>
       <c r="E19" s="3">
-        <f>E18+D18</f>
+        <f t="shared" si="0"/>
         <v>1780</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         <v>-60</v>
       </c>
       <c r="E20" s="3">
-        <f>E19+D19</f>
+        <f t="shared" si="0"/>
         <v>1755</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>-180</v>
       </c>
       <c r="E21" s="3">
-        <f>E20+D20</f>
+        <f t="shared" si="0"/>
         <v>1695</v>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>-40</v>
       </c>
       <c r="E22" s="3">
-        <f>E21+D21</f>
+        <f t="shared" si="0"/>
         <v>1515</v>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
         <v>-70</v>
       </c>
       <c r="E23" s="3">
-        <f>E22+D22</f>
+        <f t="shared" si="0"/>
         <v>1475</v>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>-60</v>
       </c>
       <c r="E24" s="3">
-        <f>E23+D23</f>
+        <f t="shared" si="0"/>
         <v>1405</v>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
         <v>-90</v>
       </c>
       <c r="E25" s="3">
-        <f>E24+D24</f>
+        <f t="shared" si="0"/>
         <v>1345</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>-350</v>
       </c>
       <c r="E26" s="3">
-        <f>E25+D25</f>
+        <f t="shared" si="0"/>
         <v>1255</v>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         <v>-50</v>
       </c>
       <c r="E27" s="3">
-        <f>E26+D26</f>
+        <f t="shared" si="0"/>
         <v>905</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
         <v>-120</v>
       </c>
       <c r="E28" s="3">
-        <f>E27+D27</f>
+        <f t="shared" si="0"/>
         <v>855</v>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
         <v>3200</v>
       </c>
       <c r="E29" s="3">
-        <f>E28+D28</f>
+        <f t="shared" si="0"/>
         <v>735</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
         <v>-100</v>
       </c>
       <c r="E30" s="3">
-        <f>E29+D29</f>
+        <f t="shared" si="0"/>
         <v>3935</v>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
         <v>-50</v>
       </c>
       <c r="E31" s="3">
-        <f>E30+D30</f>
+        <f t="shared" si="0"/>
         <v>3835</v>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
         <v>-250</v>
       </c>
       <c r="E32" s="3">
-        <f>E31+D31</f>
+        <f t="shared" si="0"/>
         <v>3785</v>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <f>E32+D32</f>
+        <f t="shared" si="0"/>
         <v>3535</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
         <v>-110</v>
       </c>
       <c r="E34" s="3">
-        <f>E33+D33</f>
+        <f t="shared" si="0"/>
         <v>3235</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
         <v>-65</v>
       </c>
       <c r="E35" s="3">
-        <f>E34+D34</f>
+        <f t="shared" si="0"/>
         <v>3125</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>-25</v>
       </c>
       <c r="E36" s="3">
-        <f>E35+D35</f>
+        <f t="shared" si="0"/>
         <v>3060</v>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
         <v>-160</v>
       </c>
       <c r="E37" s="3">
-        <f>E36+D36</f>
+        <f t="shared" si="0"/>
         <v>3035</v>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
         <v>-40</v>
       </c>
       <c r="E38" s="3">
-        <f>E37+D37</f>
+        <f t="shared" si="0"/>
         <v>2875</v>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>-45</v>
       </c>
       <c r="E39" s="3">
-        <f>E38+D38</f>
+        <f t="shared" si="0"/>
         <v>2835</v>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
         <v>-75</v>
       </c>
       <c r="E40" s="3">
-        <f>E39+D39</f>
+        <f t="shared" si="0"/>
         <v>2790</v>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
         <v>-80</v>
       </c>
       <c r="E41" s="3">
-        <f>E40+D40</f>
+        <f t="shared" si="0"/>
         <v>2715</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
         <v>-100</v>
       </c>
       <c r="E42" s="3">
-        <f>E41+D41</f>
+        <f t="shared" si="0"/>
         <v>2635</v>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
         <v>-220</v>
       </c>
       <c r="E43" s="3">
-        <f>E42+D42</f>
+        <f t="shared" si="0"/>
         <v>2535</v>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
         <v>-55</v>
       </c>
       <c r="E44" s="3">
-        <f>E43+D43</f>
+        <f t="shared" si="0"/>
         <v>2315</v>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         <v>-120</v>
       </c>
       <c r="E45" s="3">
-        <f>E44+D44</f>
+        <f t="shared" si="0"/>
         <v>2260</v>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
         <v>-45</v>
       </c>
       <c r="E46" s="3">
-        <f>E45+D45</f>
+        <f t="shared" si="0"/>
         <v>2140</v>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
         <v>-70</v>
       </c>
       <c r="E47" s="3">
-        <f>E46+D46</f>
+        <f t="shared" si="0"/>
         <v>2095</v>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
         <v>-150</v>
       </c>
       <c r="E48" s="3">
-        <f>E47+D47</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         <v>-35</v>
       </c>
       <c r="E49" s="3">
-        <f>E48+D48</f>
+        <f t="shared" si="0"/>
         <v>1875</v>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
         <v>-40</v>
       </c>
       <c r="E50" s="3">
-        <f>E49+D49</f>
+        <f t="shared" si="0"/>
         <v>1840</v>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
         <v>-60</v>
       </c>
       <c r="E51" s="3">
-        <f>E50+D50</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         <v>-400</v>
       </c>
       <c r="E52" s="3">
-        <f>E51+D51</f>
+        <f t="shared" si="0"/>
         <v>1740</v>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
         <v>-85</v>
       </c>
       <c r="E53" s="3">
-        <f>E52+D52</f>
+        <f t="shared" si="0"/>
         <v>1340</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
         <v>3200</v>
       </c>
       <c r="E54" s="3">
-        <f>E53+D53</f>
+        <f t="shared" si="0"/>
         <v>1255</v>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
         <v>-100</v>
       </c>
       <c r="E55" s="3">
-        <f>E54+D54</f>
+        <f t="shared" si="0"/>
         <v>4455</v>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
         <v>-50</v>
       </c>
       <c r="E56" s="3">
-        <f>E55+D55</f>
+        <f t="shared" si="0"/>
         <v>4355</v>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
         <v>-300</v>
       </c>
       <c r="E57" s="3">
-        <f>E56+D56</f>
+        <f t="shared" si="0"/>
         <v>4305</v>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>-50</v>
       </c>
       <c r="E58" s="3">
-        <f>E57+D57</f>
+        <f t="shared" si="0"/>
         <v>4005</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>-1200</v>
       </c>
       <c r="E59" s="3">
-        <f>E58+D58</f>
+        <f t="shared" si="0"/>
         <v>3955</v>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
         <v>-35</v>
       </c>
       <c r="E60" s="3">
-        <f>E59+D59</f>
+        <f t="shared" si="0"/>
         <v>2755</v>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
         <v>-50</v>
       </c>
       <c r="E61" s="3">
-        <f>E60+D60</f>
+        <f t="shared" si="0"/>
         <v>2720</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
         <v>-150</v>
       </c>
       <c r="E62" s="3">
-        <f>E61+D61</f>
+        <f t="shared" si="0"/>
         <v>2670</v>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
         <v>-140</v>
       </c>
       <c r="E63" s="3">
-        <f>E62+D62</f>
+        <f t="shared" si="0"/>
         <v>2520</v>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>-130</v>
       </c>
       <c r="E64" s="3">
-        <f>E63+D63</f>
+        <f t="shared" si="0"/>
         <v>2380</v>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
         <v>-120</v>
       </c>
       <c r="E65" s="3">
-        <f>E64+D64</f>
+        <f t="shared" si="0"/>
         <v>2250</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>-60</v>
       </c>
       <c r="E66" s="3">
-        <f>E65+D65</f>
+        <f t="shared" si="0"/>
         <v>2130</v>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
         <v>-40</v>
       </c>
       <c r="E67" s="3">
-        <f>E66+D66</f>
+        <f t="shared" ref="E67:E130" si="1">D66+E66</f>
         <v>2070</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
         <v>-150</v>
       </c>
       <c r="E68" s="3">
-        <f>E67+D67</f>
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
         <v>-80</v>
       </c>
       <c r="E69" s="3">
-        <f>E68+D68</f>
+        <f t="shared" si="1"/>
         <v>1880</v>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>-55</v>
       </c>
       <c r="E70" s="3">
-        <f>E69+D69</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
         <v>-70</v>
       </c>
       <c r="E71" s="3">
-        <f>E70+D70</f>
+        <f t="shared" si="1"/>
         <v>1745</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         <v>-40</v>
       </c>
       <c r="E72" s="3">
-        <f>E71+D71</f>
+        <f t="shared" si="1"/>
         <v>1675</v>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
         <v>-300</v>
       </c>
       <c r="E73" s="3">
-        <f>E72+D72</f>
+        <f t="shared" si="1"/>
         <v>1635</v>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
         <v>-30</v>
       </c>
       <c r="E74" s="3">
-        <f>E73+D73</f>
+        <f t="shared" si="1"/>
         <v>1335</v>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
         <v>-20</v>
       </c>
       <c r="E75" s="3">
-        <f>E74+D74</f>
+        <f t="shared" si="1"/>
         <v>1305</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
         <v>-50</v>
       </c>
       <c r="E76" s="3">
-        <f>E75+D75</f>
+        <f t="shared" si="1"/>
         <v>1285</v>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
         <v>-45</v>
       </c>
       <c r="E77" s="3">
-        <f>E76+D76</f>
+        <f t="shared" si="1"/>
         <v>1235</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
         <v>-60</v>
       </c>
       <c r="E78" s="3">
-        <f>E77+D77</f>
+        <f t="shared" si="1"/>
         <v>1190</v>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
         <v>-120</v>
       </c>
       <c r="E79" s="3">
-        <f>E78+D78</f>
+        <f t="shared" si="1"/>
         <v>1130</v>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
         <v>-30</v>
       </c>
       <c r="E80" s="3">
-        <f>E79+D79</f>
+        <f t="shared" si="1"/>
         <v>1010</v>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
         <v>-55</v>
       </c>
       <c r="E81" s="3">
-        <f>E80+D80</f>
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>-50</v>
       </c>
       <c r="E82" s="3">
-        <f>E81+D81</f>
+        <f t="shared" si="1"/>
         <v>925</v>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
         <v>3200</v>
       </c>
       <c r="E83" s="3">
-        <f>E82+D82</f>
+        <f t="shared" si="1"/>
         <v>875</v>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>-90</v>
       </c>
       <c r="E84" s="3">
-        <f>E83+D83</f>
+        <f t="shared" si="1"/>
         <v>4075</v>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
         <v>-100</v>
       </c>
       <c r="E85" s="3">
-        <f>E84+D84</f>
+        <f t="shared" si="1"/>
         <v>3985</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
         <v>-50</v>
       </c>
       <c r="E86" s="3">
-        <f>E85+D85</f>
+        <f t="shared" si="1"/>
         <v>3885</v>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>-80</v>
       </c>
       <c r="E87" s="3">
-        <f>E86+D86</f>
+        <f t="shared" si="1"/>
         <v>3835</v>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
         <v>-1200</v>
       </c>
       <c r="E88" s="3">
-        <f>E87+D87</f>
+        <f t="shared" si="1"/>
         <v>3755</v>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
         <v>-150</v>
       </c>
       <c r="E89" s="3">
-        <f>E88+D88</f>
+        <f t="shared" si="1"/>
         <v>2555</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
         <v>-45</v>
       </c>
       <c r="E90" s="3">
-        <f>E89+D89</f>
+        <f t="shared" si="1"/>
         <v>2405</v>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
         <v>-50</v>
       </c>
       <c r="E91" s="3">
-        <f>E90+D90</f>
+        <f t="shared" si="1"/>
         <v>2360</v>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
         <v>-155</v>
       </c>
       <c r="E92" s="3">
-        <f>E91+D91</f>
+        <f t="shared" si="1"/>
         <v>2310</v>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
         <v>-75</v>
       </c>
       <c r="E93" s="3">
-        <f>E92+D92</f>
+        <f t="shared" si="1"/>
         <v>2155</v>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
         <v>-45</v>
       </c>
       <c r="E94" s="3">
-        <f>E93+D93</f>
+        <f t="shared" si="1"/>
         <v>2080</v>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
         <v>-65</v>
       </c>
       <c r="E95" s="3">
-        <f>E94+D94</f>
+        <f t="shared" si="1"/>
         <v>2035</v>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
         <v>-100</v>
       </c>
       <c r="E96" s="3">
-        <f>E95+D95</f>
+        <f t="shared" si="1"/>
         <v>1970</v>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
         <v>-60</v>
       </c>
       <c r="E97" s="3">
-        <f>E96+D96</f>
+        <f t="shared" si="1"/>
         <v>1870</v>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
         <v>-150</v>
       </c>
       <c r="E98" s="3">
-        <f>E97+D97</f>
+        <f t="shared" si="1"/>
         <v>1810</v>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
         <v>-80</v>
       </c>
       <c r="E99" s="3">
-        <f>E98+D98</f>
+        <f t="shared" si="1"/>
         <v>1660</v>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
         <v>-120</v>
       </c>
       <c r="E100" s="3">
-        <f>E99+D99</f>
+        <f t="shared" si="1"/>
         <v>1580</v>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
         <v>-140</v>
       </c>
       <c r="E101" s="3">
-        <f>E100+D100</f>
+        <f t="shared" si="1"/>
         <v>1460</v>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
         <v>-90</v>
       </c>
       <c r="E102" s="3">
-        <f>E101+D101</f>
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
         <v>-70</v>
       </c>
       <c r="E103" s="3">
-        <f>E102+D102</f>
+        <f t="shared" si="1"/>
         <v>1230</v>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
         <v>-85</v>
       </c>
       <c r="E104" s="3">
-        <f>E103+D103</f>
+        <f t="shared" si="1"/>
         <v>1160</v>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
         <v>-120</v>
       </c>
       <c r="E105" s="3">
-        <f>E104+D104</f>
+        <f t="shared" si="1"/>
         <v>1075</v>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
         <v>-60</v>
       </c>
       <c r="E106" s="3">
-        <f>E105+D105</f>
+        <f t="shared" si="1"/>
         <v>955</v>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
         <v>-100</v>
       </c>
       <c r="E107" s="3">
-        <f>E106+D106</f>
+        <f t="shared" si="1"/>
         <v>895</v>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
         <v>-75</v>
       </c>
       <c r="E108" s="3">
-        <f>E107+D107</f>
+        <f t="shared" si="1"/>
         <v>795</v>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
         <v>-40</v>
       </c>
       <c r="E109" s="3">
-        <f>E108+D108</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
         <v>3200</v>
       </c>
       <c r="E110" s="3">
-        <f>E109+D109</f>
+        <f t="shared" si="1"/>
         <v>680</v>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
         <v>-450</v>
       </c>
       <c r="E111" s="3">
-        <f>E110+D110</f>
+        <f t="shared" si="1"/>
         <v>3880</v>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
         <v>-100</v>
       </c>
       <c r="E112" s="3">
-        <f>E111+D111</f>
+        <f t="shared" si="1"/>
         <v>3430</v>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
         <v>-50</v>
       </c>
       <c r="E113" s="3">
-        <f>E112+D112</f>
+        <f t="shared" si="1"/>
         <v>3330</v>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
         <v>-60</v>
       </c>
       <c r="E114" s="3">
-        <f>E113+D113</f>
+        <f t="shared" si="1"/>
         <v>3280</v>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
         <v>-30</v>
       </c>
       <c r="E115" s="3">
-        <f>E114+D114</f>
+        <f t="shared" si="1"/>
         <v>3220</v>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
         <v>-1200</v>
       </c>
       <c r="E116" s="3">
-        <f>E115+D115</f>
+        <f t="shared" si="1"/>
         <v>3190</v>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
         <v>-25</v>
       </c>
       <c r="E117" s="3">
-        <f>E116+D116</f>
+        <f t="shared" si="1"/>
         <v>1990</v>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
         <v>-80</v>
       </c>
       <c r="E118" s="3">
-        <f>E117+D117</f>
+        <f t="shared" si="1"/>
         <v>1965</v>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
         <v>-40</v>
       </c>
       <c r="E119" s="3">
-        <f>E118+D118</f>
+        <f t="shared" si="1"/>
         <v>1885</v>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         <v>-180</v>
       </c>
       <c r="E120" s="3">
-        <f>E119+D119</f>
+        <f t="shared" si="1"/>
         <v>1845</v>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
         <v>-150</v>
       </c>
       <c r="E121" s="3">
-        <f>E120+D120</f>
+        <f t="shared" si="1"/>
         <v>1665</v>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
         <v>-30</v>
       </c>
       <c r="E122" s="3">
-        <f>E121+D121</f>
+        <f t="shared" si="1"/>
         <v>1515</v>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
         <v>-45</v>
       </c>
       <c r="E123" s="3">
-        <f>E122+D122</f>
+        <f t="shared" si="1"/>
         <v>1485</v>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
         <v>-45</v>
       </c>
       <c r="E124" s="3">
-        <f>E123+D123</f>
+        <f t="shared" si="1"/>
         <v>1440</v>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
         <v>-80</v>
       </c>
       <c r="E125" s="3">
-        <f>E124+D124</f>
+        <f t="shared" si="1"/>
         <v>1395</v>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
         <v>-60</v>
       </c>
       <c r="E126" s="3">
-        <f>E125+D125</f>
+        <f t="shared" si="1"/>
         <v>1315</v>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
         <v>-200</v>
       </c>
       <c r="E127" s="3">
-        <f>E126+D126</f>
+        <f t="shared" si="1"/>
         <v>1255</v>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
         <v>-50</v>
       </c>
       <c r="E128" s="3">
-        <f>E127+D127</f>
+        <f t="shared" si="1"/>
         <v>1055</v>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
         <v>-300</v>
       </c>
       <c r="E129" s="3">
-        <f>E128+D128</f>
+        <f t="shared" si="1"/>
         <v>1005</v>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
         <v>-350</v>
       </c>
       <c r="E130" s="3">
-        <f>E129+D129</f>
+        <f t="shared" si="1"/>
         <v>705</v>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
         <v>-40</v>
       </c>
       <c r="E131" s="3">
-        <f>E130+D130</f>
+        <f t="shared" ref="E131:E155" si="2">D130+E130</f>
         <v>355</v>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
         <v>-60</v>
       </c>
       <c r="E132" s="3">
-        <f>E131+D131</f>
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
         <v>-60</v>
       </c>
       <c r="E133" s="3">
-        <f>E132+D132</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
         <v>-25</v>
       </c>
       <c r="E134" s="3">
-        <f>E133+D133</f>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
         <v>-60</v>
       </c>
       <c r="E135" s="3">
-        <f>E134+D134</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
         <v>-130</v>
       </c>
       <c r="E136" s="3">
-        <f>E135+D135</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
         <v>3200</v>
       </c>
       <c r="E137" s="3">
-        <f>E136+D136</f>
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
         <v>-100</v>
       </c>
       <c r="E138" s="3">
-        <f>E137+D137</f>
+        <f t="shared" si="2"/>
         <v>3180</v>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
         <v>-50</v>
       </c>
       <c r="E139" s="3">
-        <f>E138+D138</f>
+        <f t="shared" si="2"/>
         <v>3080</v>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
         <v>-1200</v>
       </c>
       <c r="E140" s="3">
-        <f>E139+D139</f>
+        <f t="shared" si="2"/>
         <v>3030</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
         <v>-140</v>
       </c>
       <c r="E141" s="3">
-        <f>E140+D140</f>
+        <f t="shared" si="2"/>
         <v>1830</v>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
         <v>-70</v>
       </c>
       <c r="E142" s="3">
-        <f>E141+D141</f>
+        <f t="shared" si="2"/>
         <v>1690</v>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
         <v>-75</v>
       </c>
       <c r="E143" s="3">
-        <f>E142+D142</f>
+        <f t="shared" si="2"/>
         <v>1620</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         <v>-60</v>
       </c>
       <c r="E144" s="3">
-        <f>E143+D143</f>
+        <f t="shared" si="2"/>
         <v>1545</v>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
         <v>-100</v>
       </c>
       <c r="E145" s="3">
-        <f>E144+D144</f>
+        <f t="shared" si="2"/>
         <v>1485</v>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
         <v>-50</v>
       </c>
       <c r="E146" s="3">
-        <f>E145+D145</f>
+        <f t="shared" si="2"/>
         <v>1385</v>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
         <v>-100</v>
       </c>
       <c r="E147" s="3">
-        <f>E146+D146</f>
+        <f t="shared" si="2"/>
         <v>1335</v>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
         <v>-50</v>
       </c>
       <c r="E148" s="3">
-        <f>E147+D147</f>
+        <f t="shared" si="2"/>
         <v>1235</v>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
         <v>-100</v>
       </c>
       <c r="E149" s="3">
-        <f>E148+D148</f>
+        <f t="shared" si="2"/>
         <v>1185</v>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
         <v>-50</v>
       </c>
       <c r="E150" s="3">
-        <f>E149+D149</f>
+        <f t="shared" si="2"/>
         <v>1085</v>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
         <v>-100</v>
       </c>
       <c r="E151" s="3">
-        <f>E150+D150</f>
+        <f t="shared" si="2"/>
         <v>1035</v>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
         <v>-50</v>
       </c>
       <c r="E152" s="3">
-        <f>E151+D151</f>
+        <f t="shared" si="2"/>
         <v>935</v>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
         <v>-100</v>
       </c>
       <c r="E153" s="3">
-        <f>E152+D152</f>
+        <f t="shared" si="2"/>
         <v>885</v>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
         <v>-50</v>
       </c>
       <c r="E154" s="3">
-        <f>E153+D153</f>
+        <f t="shared" si="2"/>
         <v>785</v>
       </c>
     </row>
@@ -3487,13 +3487,13 @@
         <v>-50</v>
       </c>
       <c r="E155" s="3">
-        <f>E154+D154</f>
+        <f t="shared" si="2"/>
         <v>735</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E154">
-    <sortCondition ref="A1:A154"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E155">
+    <sortCondition ref="A1:A155"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bank_acc/bank_acc_1.xlsx
+++ b/data/bank_acc/bank_acc_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D7172-B3F9-46D6-B7D8-45D2446F717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEE8E5-E8D7-4D40-8597-E68CCDA08E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
